--- a/branches/master/ValueSet-be-allergyintolerancecode.xlsx
+++ b/branches/master/ValueSet-be-allergyintolerancecode.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/ValueSet/be-allergyintolerancecode</t>
+    <t>https://medigree.github.io/MLQuestionnaires/ValueSet-be-allergyintolerancecode</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-18T18:16:06+00:00</t>
+    <t>2022-09-18T20:06:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
